--- a/experiments/ClusterResults.xlsx
+++ b/experiments/ClusterResults.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="25360" windowHeight="15940" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="11420" yWindow="500" windowWidth="18620" windowHeight="15940" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Honest Majority" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>1/128</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t>5 curves</t>
+  </si>
+  <si>
+    <t>number of clusters</t>
+  </si>
+  <si>
+    <t>number of layers needed</t>
   </si>
 </sst>
 </file>
@@ -83,12 +89,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -100,7 +112,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -108,18 +120,36 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="15">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -456,7 +486,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -711,13 +741,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="28.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B1">
@@ -769,40 +802,40 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <v>12</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>12</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <v>12</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="3">
         <v>12</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="3">
         <v>12</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="3">
         <v>12</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="3">
         <v>12</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="3">
         <v>12</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="3">
         <v>12</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="3">
         <v>12</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="3">
         <v>12</v>
       </c>
     </row>
@@ -845,40 +878,40 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>8</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>8</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <v>8</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="3">
         <v>8</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="3">
         <v>8</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="3">
         <v>8</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="3">
         <v>8</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="3">
         <v>8</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="3">
         <v>8</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="3">
         <v>8</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="3">
         <v>8</v>
       </c>
     </row>
@@ -921,51 +954,149 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3">
         <v>6</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
         <v>6</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="3">
         <v>6</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="3">
         <v>6</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="3">
         <v>6</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="3">
         <v>6</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="3">
         <v>6</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="3">
         <v>6</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="3">
         <v>6</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="3">
         <v>6</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="3">
         <v>6</v>
       </c>
     </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <f>B1/B6</f>
+        <v>170.66666666666666</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ref="C8:L8" si="0">C1/C6</f>
+        <v>341.33333333333331</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>682.66666666666663</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>1365.3333333333333</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>2730.6666666666665</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>5461.333333333333</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>10922.666666666666</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>21845.333333333332</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>43690.666666666664</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>87381.333333333328</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>174762.66666666666</v>
+      </c>
+    </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <f>LOG(B8,2)</f>
+        <v>7.415037499278843</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ref="C9:L9" si="1">LOG(C8,2)</f>
+        <v>8.4150374992788439</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>9.4150374992788439</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>10.415037499278844</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>11.415037499278844</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>12.415037499278844</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>13.415037499278844</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>14.415037499278844</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>15.415037499278844</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>16.415037499278846</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="1"/>
+        <v>17.415037499278846</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="E13" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
